--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -32,7 +32,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>ability_type</t>
+    <t>skill_type</t>
   </si>
   <si>
     <t>target_type</t>
@@ -105,10 +105,10 @@
   </si>
   <si>
     <t>1被动类型的技能(PassiveAblity)
-2主动施法技能（最常见的通用主动施法类技能，如普通攻击等一次性触发效果类技能（GeneralAbility）
-3引导类持续施法技能(ChannelAbility)，如大法师暴风雪）
-4开关类技能（(ToggleAbility)点击技能开启/关闭效果，类似于恶魔猎手献祭）
-5激活类技能（(ActivateAbility)点下右键激活/停止，一般是给普通攻击附加特殊效果）</t>
+2主动施法技能（最常见的通用主动施法类技能，如普通攻击等一次性触发效果类技能（Generalskill）
+3引导类持续施法技能(Channelskill)，如大法师暴风雪）
+4开关类技能（(Toggleskill)点击技能开启/关闭效果，类似于恶魔猎手献祭）
+5激活类技能（(Activateskill)点下右键激活/停止，一般是给普通攻击附加特殊效果）</t>
   </si>
   <si>
     <t>1技能释放时不需要目标即可释放（如群疗，踩地板技能） -&gt; 1 &lt;&lt; 1
@@ -1097,8 +1097,8 @@
   <sheetPr/>
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16660"/>
+    <workbookView windowWidth="23960" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -1097,8 +1097,8 @@
   <sheetPr/>
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>1</v>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23960" windowHeight="11390"/>
+    <workbookView windowWidth="24180" windowHeight="11950"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -56,9 +56,6 @@
     <t>effect</t>
   </si>
   <si>
-    <t>postcastrecoverytime</t>
-  </si>
-  <si>
     <t>channelthink</t>
   </si>
   <si>
@@ -104,11 +101,11 @@
     <t>common</t>
   </si>
   <si>
-    <t>1被动类型的技能(PassiveAblity)
-2主动施法技能（最常见的通用主动施法类技能，如普通攻击等一次性触发效果类技能（Generalskill）
-3引导类持续施法技能(Channelskill)，如大法师暴风雪）
-4开关类技能（(Toggleskill)点击技能开启/关闭效果，类似于恶魔猎手献祭）
-5激活类技能（(Activateskill)点下右键激活/停止，一般是给普通攻击附加特殊效果）</t>
+    <t>0被动类型的技能(PassiveAblity)
+1主动施法技能（最常见的通用主动施法类技能，如普通攻击等一次性触发效果类技能（Generalskill）
+2引导类持续施法技能(Channelskill)，如大法师暴风雪）
+3开关类技能（(Toggleskill)点击技能开启/关闭效果，类似于恶魔猎手献祭）
+4激活类技能（(Activateskill)点下右键激活/停止，一般是给普通攻击附加特殊效果）</t>
   </si>
   <si>
     <t>1技能释放时不需要目标即可释放（如群疗，踩地板技能） -&gt; 1 &lt;&lt; 1
@@ -126,13 +123,10 @@
 一般为动画抬手到攻击帧时长。比如说播放一个挥刀动画0.3秒后动画到攻击点，这时策划就配置CastPoint为0.3秒。</t>
   </si>
   <si>
-    <t>后摇阶段</t>
+    <t>后摇阶段一般不能被其他技能打断，除非是连招或者强制立即释放类技能。我们的技能系统不需要引入公共CD这个概念，通过前摇后摇阶段的划分就足够满足各种需求了</t>
   </si>
   <si>
     <t>技能前摇阶段不允许其他技能释放，除非技能可强制立即释放（bImmediately=true）（如有些游戏要求滚动还有解控技可以立即打断当前技能）</t>
-  </si>
-  <si>
-    <t>后摇阶段一般不能被其他技能打断，除非是连招或者强制立即释放类技能。我们的技能系统不需要引入公共CD这个概念，通过前摇后摇阶段的划分就足够满足各种需求了</t>
   </si>
   <si>
     <t>资源条件</t>
@@ -1095,15 +1089,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1177,19 +1171,19 @@
         <v>14</v>
       </c>
       <c r="Y1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z1" t="s">
         <v>14</v>
       </c>
       <c r="AA1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB1" t="s">
         <v>14</v>
       </c>
       <c r="AC1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD1" t="s">
         <v>14</v>
@@ -1212,234 +1206,225 @@
       <c r="AJ1" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="s">
         <v>22</v>
       </c>
       <c r="AF2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -1461,86 +1446,81 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="19" ht="408" customHeight="1" spans="2:37">
+    <row r="19" ht="408" customHeight="1" spans="2:36">
       <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" t="s">
         <v>29</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>30</v>
       </c>
-      <c r="J19" t="s">
+      <c r="W19" t="s">
         <v>31</v>
       </c>
-      <c r="S19" t="s">
+      <c r="X19" t="s">
         <v>32</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE19" t="s">
         <v>33</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AF19" t="s">
         <v>34</v>
       </c>
-      <c r="Z19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>35</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>36</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>37</v>
       </c>
-      <c r="AI19" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:36">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1555,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1588,31 +1568,31 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AA20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -1641,11 +1621,8 @@
       <c r="AJ20">
         <v>0</v>
       </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:36">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1698,13 +1675,13 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>1</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -1751,11 +1728,8 @@
       <c r="AJ21">
         <v>0</v>
       </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:36">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1808,13 +1782,13 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -1861,11 +1835,8 @@
       <c r="AJ22">
         <v>0</v>
       </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:36">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1918,13 +1889,13 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
         <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -1971,11 +1942,8 @@
       <c r="AJ23">
         <v>0</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:36">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2028,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2081,11 +2049,8 @@
       <c r="AJ24">
         <v>0</v>
       </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:36">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2141,13 +2106,13 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2194,11 +2159,8 @@
       <c r="AJ25">
         <v>0</v>
       </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:36">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2251,13 +2213,13 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
         <v>1</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2304,11 +2266,8 @@
       <c r="AJ26">
         <v>0</v>
       </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:36">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2361,13 +2320,13 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2414,11 +2373,8 @@
       <c r="AJ27">
         <v>0</v>
       </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:36">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2471,13 +2427,13 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2524,11 +2480,8 @@
       <c r="AJ28">
         <v>0</v>
       </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:36">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2575,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2628,11 +2581,8 @@
       <c r="AJ29">
         <v>0</v>
       </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:36">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2685,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2738,11 +2688,8 @@
       <c r="AJ30">
         <v>0</v>
       </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:36">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2798,13 +2745,13 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>1</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2849,9 +2796,6 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1230,10 +1230,10 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -108,9 +108,9 @@
 4激活类技能（(Activateskill)点下右键激活/停止，一般是给普通攻击附加特殊效果）</t>
   </si>
   <si>
-    <t>1技能释放时不需要目标即可释放（如群疗，踩地板技能） -&gt; 1 &lt;&lt; 1
-2技能释放时需要选定目标（单体指向性技能） -&gt; 1 &lt;&lt; 2
-3技能释放时需要以指定地点为目标（常用于AOE技能） -&gt; 1 &lt;&lt; 3</t>
+    <t>0技能释放时不需要目标即可释放（如群疗，踩地板技能） -&gt; 1 &lt;&lt; 1
+1技能释放时需要选定目标（单体指向性技能） -&gt; 1 &lt;&lt; 2
+2技能释放时需要以指定地点为目标（常用于AOE技能） -&gt; 1 &lt;&lt; 3</t>
   </si>
   <si>
     <t>目标</t>
@@ -1091,8 +1091,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1454,9 +1454,7 @@
       <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" t="s">
         <v>26</v>
       </c>
@@ -1526,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1737,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -2061,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -2382,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2700,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>3</v>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="11950"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -839,7 +839,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1091,11 +1091,11 @@
   <sheetPr/>
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:36">
       <c r="A1" t="s">

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,18 @@
     <t>immediately</t>
   </si>
   <si>
+    <t>requireditem_type</t>
+  </si>
+  <si>
+    <t>requireditem_value</t>
+  </si>
+  <si>
+    <t>requiredresource_type</t>
+  </si>
+  <si>
+    <t>requiredresource_value</t>
+  </si>
+  <si>
     <t>effect</t>
   </si>
   <si>
@@ -96,6 +108,9 @@
   </si>
   <si>
     <t>double</t>
+  </si>
+  <si>
+    <t>uint64</t>
   </si>
   <si>
     <t>common</t>
@@ -839,7 +854,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1089,15 +1104,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AR31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,49 +1147,49 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V1" t="s">
         <v>12</v>
       </c>
       <c r="W1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA1" t="s">
         <v>13</v>
@@ -1183,16 +1198,16 @@
         <v>14</v>
       </c>
       <c r="AC1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG1" t="s">
         <v>17</v>
@@ -1201,230 +1216,302 @@
         <v>18</v>
       </c>
       <c r="AI1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>20</v>
       </c>
+      <c r="AO1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AD2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AJ2" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="X4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AD4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -1446,74 +1533,74 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="19" ht="408" customHeight="1" spans="2:36">
+    <row r="19" ht="408" customHeight="1" spans="2:44">
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="W19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AG19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="s">
         <v>36</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>37</v>
       </c>
       <c r="AJ19" t="s">
         <v>37</v>
       </c>
+      <c r="AK19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:44">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1572,55 +1659,79 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
       <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
         <v>10</v>
       </c>
-      <c r="Y20">
+      <c r="AG20">
         <v>2</v>
       </c>
-      <c r="Z20">
+      <c r="AH20">
         <v>20</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
       <c r="AI20">
         <v>0</v>
       </c>
       <c r="AJ20">
         <v>0</v>
       </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:44">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1679,28 +1790,28 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -1726,8 +1837,32 @@
       <c r="AJ21">
         <v>0</v>
       </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:44">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1786,28 +1921,28 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -1833,8 +1968,32 @@
       <c r="AJ22">
         <v>0</v>
       </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:44">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1893,28 +2052,28 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -1940,8 +2099,32 @@
       <c r="AJ23">
         <v>0</v>
       </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:44">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2000,28 +2183,28 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -2047,8 +2230,32 @@
       <c r="AJ24">
         <v>0</v>
       </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:44">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2110,28 +2317,28 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -2157,8 +2364,32 @@
       <c r="AJ25">
         <v>0</v>
       </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:44">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2217,28 +2448,28 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -2264,8 +2495,32 @@
       <c r="AJ26">
         <v>0</v>
       </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:44">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2324,28 +2579,28 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -2371,8 +2626,32 @@
       <c r="AJ27">
         <v>0</v>
       </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:44">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2431,28 +2710,28 @@
         <v>1</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -2478,8 +2757,32 @@
       <c r="AJ28">
         <v>0</v>
       </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:44">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2532,28 +2835,28 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -2579,8 +2882,32 @@
       <c r="AJ29">
         <v>0</v>
       </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:44">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2639,28 +2966,28 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -2686,8 +3013,32 @@
       <c r="AJ30">
         <v>0</v>
       </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:44">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2749,28 +3100,28 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -2794,6 +3145,30 @@
         <v>0</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,9 @@
     <t>cooldown_id</t>
   </si>
   <si>
+    <t>damage</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
   </si>
   <si>
     <t>uint64</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>common</t>
@@ -163,6 +169,9 @@
   </si>
   <si>
     <t>所需状态</t>
+  </si>
+  <si>
+    <t>100*level</t>
   </si>
 </sst>
 </file>
@@ -854,7 +863,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1104,15 +1113,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR31"/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1245,281 +1254,293 @@
       <c r="AR1" t="s">
         <v>24</v>
       </c>
+      <c r="AS1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="AN2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>26</v>
-      </c>
       <c r="AO2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:45">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR4" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="H7" s="1"/>
+      <c r="AS7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
@@ -1535,72 +1556,72 @@
     </row>
     <row r="19" ht="408" customHeight="1" spans="2:44">
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AK19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AN19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AP19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AR19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1730,8 +1751,11 @@
       <c r="AR20">
         <v>0</v>
       </c>
+      <c r="AS20">
+        <v>100</v>
+      </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1860,6 +1884,9 @@
       </c>
       <c r="AR21">
         <v>0</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:44">

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>level</t>
   </si>
   <si>
     <t>0被动类型的技能(PassiveAblity)
@@ -1116,7 +1119,7 @@
   <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7"/>
+      <selection activeCell="AS8" sqref="AS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1542,11 +1545,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
+      <c r="AS8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
@@ -1556,69 +1562,69 @@
     </row>
     <row r="19" ht="408" customHeight="1" spans="2:44">
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI19" t="s">
         <v>39</v>
       </c>
-      <c r="AG19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AP19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AQ19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AR19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -1886,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:44">

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>100*level</t>
+  </si>
+  <si>
+    <t>1000*level</t>
+  </si>
+  <si>
+    <t>10000*level</t>
   </si>
 </sst>
 </file>
@@ -866,7 +872,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1118,8 +1124,8 @@
   <sheetPr/>
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AS8" sqref="AS8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q19" workbookViewId="0">
+      <selection activeCell="AS28" sqref="AS28:AS31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1895,7 +1901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:45">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2025,8 +2031,11 @@
       <c r="AR22">
         <v>0</v>
       </c>
+      <c r="AS22" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:45">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2156,8 +2165,11 @@
       <c r="AR23">
         <v>0</v>
       </c>
+      <c r="AS23" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:45">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2287,8 +2299,11 @@
       <c r="AR24">
         <v>0</v>
       </c>
+      <c r="AS24" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:45">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2421,8 +2436,11 @@
       <c r="AR25">
         <v>0</v>
       </c>
+      <c r="AS25" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:45">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2552,8 +2570,11 @@
       <c r="AR26">
         <v>0</v>
       </c>
+      <c r="AS26" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:45">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2683,8 +2704,11 @@
       <c r="AR27">
         <v>0</v>
       </c>
+      <c r="AS27" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:45">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2814,8 +2838,11 @@
       <c r="AR28">
         <v>0</v>
       </c>
+      <c r="AS28" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:45">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2939,8 +2966,11 @@
       <c r="AR29">
         <v>0</v>
       </c>
+      <c r="AS29" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:45">
       <c r="A30">
         <v>11</v>
       </c>
@@ -3070,8 +3100,11 @@
       <c r="AR30">
         <v>0</v>
       </c>
+      <c r="AS30" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:45">
       <c r="A31">
         <v>12</v>
       </c>
@@ -3203,6 +3236,9 @@
       </c>
       <c r="AR31">
         <v>0</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -92,7 +92,7 @@
     <t>max_range</t>
   </si>
   <si>
-    <t>mmin_range</t>
+    <t>min_range</t>
   </si>
   <si>
     <t>self_status</t>
@@ -1124,8 +1124,8 @@
   <sheetPr/>
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q19" workbookViewId="0">
-      <selection activeCell="AS28" sqref="AS28:AS31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -1124,8 +1124,8 @@
   <sheetPr/>
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="P13" workbookViewId="0">
+      <selection activeCell="AS28" sqref="AS28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1763,8 +1763,8 @@
       <c r="AR20">
         <v>0</v>
       </c>
-      <c r="AS20">
-        <v>100</v>
+      <c r="AS20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:45">

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -872,7 +872,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1124,8 +1124,8 @@
   <sheetPr/>
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="P13" workbookViewId="0">
-      <selection activeCell="AS28" sqref="AS28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -125,11 +125,14 @@
     <t>level</t>
   </si>
   <si>
-    <t>0被动类型的技能(PassiveAblity)
-1主动施法技能（最常见的通用主动施法类技能，如普通攻击等一次性触发效果类技能（Generalskill）
-2引导类持续施法技能(Channelskill)，如大法师暴风雪）
-3开关类技能（(Toggleskill)点击技能开启/关闭效果，类似于恶魔猎手献祭）
-4激活类技能（(Activateskill)点下右键激活/停止，一般是给普通攻击附加特殊效果）</t>
+    <t>enum eSkillType : uint32_t {
+ kPassiveSkill = 1 &lt;&lt; 0,    // 被动技能
+ kGeneralSkill = 1 &lt;&lt; 1,    // 普通施法技能
+ kChannelSkill = 1 &lt;&lt; 2,    // 持续施法技能
+ kToggleSkill = 1 &lt;&lt; 3,     // 开关类技能
+ kActivateSkill = 1 &lt;&lt; 4,    // 激活类技能
+ kBasicAttack   = 1 &lt;&lt; 5  // 普通攻击技能的单独枚举
+};</t>
   </si>
   <si>
     <t>0技能释放时不需要目标即可释放（如群疗，踩地板技能） -&gt; 1 &lt;&lt; 1
@@ -1124,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -875,7 +875,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1127,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O5" workbookViewId="0">
+      <selection activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20" t="s">
         <v>46</v>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="20145" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -35,7 +35,7 @@
     <t>skill_type</t>
   </si>
   <si>
-    <t>target_type</t>
+    <t>targeting_mode</t>
   </si>
   <si>
     <t>rquest_target</t>
@@ -875,7 +875,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1125,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O5" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="AQ21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3244,6 +3244,143 @@
         <v>48</v>
       </c>
     </row>
+    <row r="32" spans="1:45">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>20</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>

--- a/bin/config/xlsx/Skill.xlsx
+++ b/bin/config/xlsx/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="10275"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -1127,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3300,17 +3300,17 @@
         <v>1</v>
       </c>
       <c r="S32">
+        <v>14</v>
+      </c>
+      <c r="T32">
+        <v>16</v>
+      </c>
+      <c r="U32">
+        <v>19</v>
+      </c>
+      <c r="V32">
         <v>20</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
       <c r="W32">
         <v>0</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS32" t="s">
         <v>48</v>
